--- a/biology/Botanique/Pavel_Ovtchinnikov_(botaniste)/Pavel_Ovtchinnikov_(botaniste).xlsx
+++ b/biology/Botanique/Pavel_Ovtchinnikov_(botaniste)/Pavel_Ovtchinnikov_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pavel Nikolaïevitch Ovtchinnikov (Павел Николаевич Овчинников), né le 10 (23) avril 1903 et mort le 21 décembre 1979, est un botaniste soviétique, membre de l'académie des sciences du Tadjikistan à partir de 1957 et héros du travail socialiste (1969).
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pavel Ovtchinnikov étudie à l'université de Léningrad qu'il termine en 1925. Il prend part à plusieurs expéditions scientifiques au Kazakhstan entre 1926 et 1931. Il travaille de 1931 à 1941 à l'institut de botanique de l'Académie des sciences d'URSS situé à Léningrad. Il est nommé en 1945 directeur de l'institut de botanique de l'Académie des sciences du Tadjikistan. En 1957, il est nommé secrétaire de l'Académie pour le département des sciences naturelles. Il publie de nombreux travaux consacrés à la flore d'Asie centrale et de la partie européenne de l'URSS. Le professeur Ovtchinnikov est également l'auteur de monographies concernant les céréales, les roses, les renoncules et les Primulaceae. Il participe à leur classification systématique et à leur description dans la série des livres de La Flore d'URSS, La Flore de Transbaïkalie et La Flore d'Ouzbékistan.
 Pavel Ovtchinnikov était le rédacteur en chef de la série La Flore du Tadjikistan.
@@ -544,7 +558,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs plantes ont été nommées en son honneur:
 Androsace ovczinnikovii, Schischk. &amp; Bobrov, 1952
@@ -586,7 +602,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Héros du travail socialiste
 Ordre de Lénine (deux fois)
@@ -619,7 +637,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(ru) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en russe intitulé « Овчинников, Павел Николаевич » (voir la liste des auteurs).</t>
         </is>
